--- a/index-BS 翻译完的版本.xlsx
+++ b/index-BS 翻译完的版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="11670"/>
+    <workbookView windowWidth="18120" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6317,7 +6317,33 @@
     </r>
   </si>
   <si>
-    <t>  EquipmentInfomanagement: '设备功能设置管理',</t>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  EquipmentInfomanagement: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备功能设置管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6707,7 +6733,33 @@
     </r>
   </si>
   <si>
-    <t>  DriverInfomanagement: '司机信息管理',</t>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  DriverInfomanagement: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>司机信息管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',</t>
+    </r>
   </si>
   <si>
     <r>
@@ -8042,6 +8094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>DownloadTemplate  </t>
     </r>
     <r>
@@ -10498,12 +10556,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>FileType  </t>
     </r>
     <r>
@@ -10554,12 +10606,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>FileName  </t>
     </r>
     <r>
@@ -10666,6 +10712,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>TerminalNo </t>
     </r>
     <r>
@@ -17780,6 +17832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>  VerifyStatus</t>
     </r>
     <r>
@@ -36000,7 +36058,33 @@
     </r>
   </si>
   <si>
-    <t>Client discount amount: '商户优惠金额'</t>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Client discount amount: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商户优惠金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
   </si>
   <si>
     <r>
@@ -39246,6 +39330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>file format incorrect. Please upload files in xlsx, xls format </t>
     </r>
     <r>
@@ -39314,6 +39404,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>repeated terminal NO. existed  </t>
     </r>
     <r>
@@ -46831,6 +46927,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>  Verifying</t>
     </r>
     <r>
@@ -54596,7 +54698,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54656,21 +54758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54685,52 +54773,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54762,7 +54805,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54784,8 +54878,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54793,7 +54888,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54876,6 +54978,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF001080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -54910,7 +55018,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54928,7 +55150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54940,55 +55162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -55006,91 +55192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -55137,32 +55245,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -55184,20 +55271,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -55209,10 +55317,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -55221,133 +55329,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -55753,8 +55861,8 @@
   <sheetPr/>
   <dimension ref="A1:A881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -56525,12 +56633,12 @@
       </c>
     </row>
     <row r="158" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="159" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -56540,12 +56648,12 @@
       </c>
     </row>
     <row r="161" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="162" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -56570,47 +56678,47 @@
       </c>
     </row>
     <row r="167" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="168" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="169" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="170" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="171" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="172" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="173" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="174" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="175" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -56728,12 +56836,12 @@
       </c>
     </row>
     <row r="199" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="200" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -56763,7 +56871,7 @@
       </c>
     </row>
     <row r="206" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -56778,47 +56886,47 @@
       </c>
     </row>
     <row r="209" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="210" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="211" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="212" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="213" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="214" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="215" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="216" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="217" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -56828,12 +56936,12 @@
       </c>
     </row>
     <row r="219" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="220" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -56868,7 +56976,7 @@
       </c>
     </row>
     <row r="227" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -56982,13 +57090,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="250" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A250" s="9" t="s">
+    <row r="250" customFormat="1" ht="15" customHeight="1" spans="1:1">
+      <c r="A250" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="251" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="6" t="s">
         <v>238</v>
       </c>
     </row>
